--- a/outputs/c/_tomatoes_both.xlsx
+++ b/outputs/c/_tomatoes_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="134">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity2</t>
   </si>
   <si>
@@ -414,10 +411,16 @@
     <t>cherry</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -751,7 +754,7 @@
   <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="A1:O1048576"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -791,19 +794,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>0</v>
@@ -812,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>2</v>
@@ -830,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -841,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>56</v>
@@ -853,19 +856,19 @@
         <v>1014</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="3">
         <v>0</v>
@@ -875,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2" s="3">
         <v>0</v>
@@ -890,13 +893,13 @@
         <v>768</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Y2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -907,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>65</v>
@@ -919,19 +922,19 @@
         <v>718</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N3" s="3">
         <v>0</v>
@@ -941,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" s="3">
         <v>0</v>
@@ -956,13 +959,13 @@
         <v>214</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="Y3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -973,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>55</v>
@@ -985,22 +988,22 @@
         <v>500</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N4" s="3">
         <v>0</v>
@@ -1010,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S4" s="3">
         <v>0</v>
@@ -1025,13 +1028,13 @@
         <v>476</v>
       </c>
       <c r="W4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="Y4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,7 +1045,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>155</v>
@@ -1054,22 +1057,22 @@
         <v>1100</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N5" s="3">
         <v>0</v>
@@ -1079,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5" s="3">
         <v>0</v>
@@ -1094,13 +1097,13 @@
         <v>128</v>
       </c>
       <c r="W5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="Y5" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1111,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>57</v>
@@ -1123,19 +1126,19 @@
         <v>648</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N6" s="3">
         <v>0</v>
@@ -1145,7 +1148,7 @@
         <v>12</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S6" s="3">
         <v>0</v>
@@ -1160,13 +1163,13 @@
         <v>130</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1177,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>324</v>
@@ -1189,22 +1192,22 @@
         <v>1618</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -1214,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
@@ -1229,13 +1232,13 @@
         <v>1618</v>
       </c>
       <c r="W7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="Y7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1246,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>156</v>
@@ -1258,19 +1261,19 @@
         <v>1092</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -1280,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -1295,13 +1298,13 @@
         <v>1048</v>
       </c>
       <c r="W8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="Y8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1312,7 +1315,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>578</v>
@@ -1324,22 +1327,22 @@
         <v>5034</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -1349,7 +1352,7 @@
         <v>17</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -1364,13 +1367,13 @@
         <v>5034</v>
       </c>
       <c r="W9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1381,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>298</v>
@@ -1393,19 +1396,19 @@
         <v>2598</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -1415,10 +1418,10 @@
         <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T10" s="3">
         <v>247</v>
@@ -1430,13 +1433,13 @@
         <v>2224</v>
       </c>
       <c r="W10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="Y10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1447,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>221</v>
@@ -1459,19 +1462,19 @@
         <v>3492</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -1481,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S11" s="3">
         <v>1</v>
@@ -1496,13 +1499,13 @@
         <v>2782</v>
       </c>
       <c r="W11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="Y11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>37</v>
@@ -1525,19 +1528,19 @@
         <v>374</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1547,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -1562,13 +1565,13 @@
         <v>3366</v>
       </c>
       <c r="W12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="Y12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1579,7 +1582,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1">
         <v>280</v>
@@ -1591,19 +1594,19 @@
         <v>1102</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N13" s="3">
         <v>0</v>
@@ -1613,7 +1616,7 @@
         <v>9</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
@@ -1628,13 +1631,13 @@
         <v>214</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1642,28 +1645,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1673,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1688,13 +1691,13 @@
         <v>1102</v>
       </c>
       <c r="W14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="Y14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1705,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>45</v>
@@ -1717,10 +1720,10 @@
         <v>768</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1731,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>34</v>
@@ -1743,10 +1746,10 @@
         <v>214</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1757,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>38</v>
@@ -1769,10 +1772,10 @@
         <v>242</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1783,7 +1786,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>54</v>
@@ -1795,10 +1798,10 @@
         <v>672</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1809,7 +1812,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>58</v>
@@ -1821,10 +1824,10 @@
         <v>680</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1835,7 +1838,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>66</v>
@@ -1847,10 +1850,10 @@
         <v>736</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1861,7 +1864,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>47</v>
@@ -1873,10 +1876,10 @@
         <v>476</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1887,7 +1890,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>59</v>
@@ -1899,10 +1902,10 @@
         <v>550</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1913,7 +1916,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>107</v>
@@ -1925,10 +1928,10 @@
         <v>898</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1939,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>17</v>
@@ -1951,10 +1954,10 @@
         <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1965,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>19</v>
@@ -1977,10 +1980,10 @@
         <v>218</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1991,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>35</v>
@@ -2003,10 +2006,10 @@
         <v>284</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2017,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>13</v>
@@ -2029,10 +2032,10 @@
         <v>130</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2043,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
@@ -2055,10 +2058,10 @@
         <v>310</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2069,7 +2072,7 @@
         <v>12</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>36</v>
@@ -2081,10 +2084,10 @@
         <v>360</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2095,7 +2098,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>61</v>
@@ -2107,10 +2110,10 @@
         <v>712</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2121,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>327</v>
@@ -2133,10 +2136,10 @@
         <v>1628</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2147,7 +2150,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>354</v>
@@ -2159,10 +2162,10 @@
         <v>1936</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2173,7 +2176,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>386</v>
@@ -2185,10 +2188,10 @@
         <v>2020</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2199,7 +2202,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>146</v>
@@ -2211,10 +2214,10 @@
         <v>1048</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2225,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
         <v>162</v>
@@ -2237,10 +2240,10 @@
         <v>1122</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2251,7 +2254,7 @@
         <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
         <v>604</v>
@@ -2263,10 +2266,10 @@
         <v>5312</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2277,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1">
         <v>247</v>
@@ -2289,10 +2292,10 @@
         <v>2224</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2303,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1">
         <v>256</v>
@@ -2315,10 +2318,10 @@
         <v>2268</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2329,7 +2332,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1">
         <v>260</v>
@@ -2341,10 +2344,10 @@
         <v>2296</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2355,7 +2358,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="1">
         <v>289</v>
@@ -2367,10 +2370,10 @@
         <v>2540</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2381,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="1">
         <v>304</v>
@@ -2393,10 +2396,10 @@
         <v>2632</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2407,7 +2410,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1">
         <v>312</v>
@@ -2419,10 +2422,10 @@
         <v>2660</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2433,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="1">
         <v>318</v>
@@ -2445,10 +2448,10 @@
         <v>2752</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2459,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="1">
         <v>321</v>
@@ -2471,10 +2474,10 @@
         <v>2782</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2485,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1">
         <v>211</v>
@@ -2497,10 +2500,10 @@
         <v>3366</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2511,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="1">
         <v>227</v>
@@ -2523,10 +2526,10 @@
         <v>3560</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2537,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="1">
         <v>230</v>
@@ -2549,10 +2552,10 @@
         <v>3738</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2563,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1">
         <v>245</v>
@@ -2575,10 +2578,10 @@
         <v>3794</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2589,7 +2592,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="1">
         <v>13</v>
@@ -2601,10 +2604,10 @@
         <v>214</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2615,7 +2618,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="1">
         <v>17</v>
@@ -2627,10 +2630,10 @@
         <v>316</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2641,7 +2644,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="1">
         <v>54</v>
@@ -2653,10 +2656,10 @@
         <v>496</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2667,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="1">
         <v>184</v>
@@ -2679,10 +2682,10 @@
         <v>1140</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2693,7 +2696,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="1">
         <v>211</v>
@@ -2705,10 +2708,10 @@
         <v>1282</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2719,7 +2722,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1">
         <v>273</v>
@@ -2731,10 +2734,10 @@
         <v>1570</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2745,7 +2748,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="1">
         <v>352</v>
@@ -2757,10 +2760,10 @@
         <v>2148</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2771,7 +2774,7 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="1">
         <v>316</v>
@@ -2783,10 +2786,10 @@
         <v>1170</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
